--- a/0_1_Output_Data/5_ifoCAST_error_series_last_rep_since_2022/ifoCAst_errors_last_rep_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_last_rep_since_2022/ifoCAst_errors_last_rep_latest_since_2022.xlsx
@@ -539,12 +539,15 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.2315426864241067</v>
+        <v>0.1647551661493167</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.331651578</v>
       </c>
     </row>
     <row r="17" spans="1:1">
